--- a/pickle/rolling_corr_excel_target_index_KOSPI_simulation_term_type_2_window_size_27.xlsx
+++ b/pickle/rolling_corr_excel_target_index_KOSPI_simulation_term_type_2_window_size_27.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="252">
   <si>
     <t>KOSPI_BBA-10Y Spread</t>
   </si>
@@ -35,24 +35,6 @@
     <t>KOSPI_CNY/USD</t>
   </si>
   <si>
-    <t>KOSPI_CPB 선진국 산업생산</t>
-  </si>
-  <si>
-    <t>KOSPI_CPB 선진국 수출</t>
-  </si>
-  <si>
-    <t>KOSPI_CPB 세계교역</t>
-  </si>
-  <si>
-    <t>KOSPI_CPB 세계생산</t>
-  </si>
-  <si>
-    <t>KOSPI_CPB 이머징 산업생산</t>
-  </si>
-  <si>
-    <t>KOSPI_CPB 이머징 수출</t>
-  </si>
-  <si>
     <t>KOSPI_CPI 주거비</t>
   </si>
   <si>
@@ -203,18 +185,9 @@
     <t>KOSPI_Nikkei225 P/E</t>
   </si>
   <si>
-    <t>KOSPI_OECD ASIA 5 경기선행지수</t>
-  </si>
-  <si>
-    <t>KOSPI_OECD G7 경기선행지수</t>
-  </si>
-  <si>
     <t>KOSPI_OECD 소비자물가</t>
   </si>
   <si>
-    <t>KOSPI_OECD+6NME 경기선행지수</t>
-  </si>
-  <si>
     <t>KOSPI_OITP 인덱스</t>
   </si>
   <si>
@@ -374,12 +347,6 @@
     <t>KOSPI_두바이유가</t>
   </si>
   <si>
-    <t>KOSPI_러시아 OECD 경기선행지수</t>
-  </si>
-  <si>
-    <t>KOSPI_러시아 수출 YoY</t>
-  </si>
-  <si>
     <t>KOSPI_미국 10년 투기적포지션</t>
   </si>
   <si>
@@ -401,18 +368,12 @@
     <t>KOSPI_미국 NAHB 주택시장지수</t>
   </si>
   <si>
-    <t>KOSPI_미국 OECD 경기선행지수</t>
-  </si>
-  <si>
     <t>KOSPI_미국 PD 일평균 국채거래량</t>
   </si>
   <si>
     <t>KOSPI_미국 REER</t>
   </si>
   <si>
-    <t>KOSPI_미국 S&amp;P 케이스쉴러 주택가격</t>
-  </si>
-  <si>
     <t>KOSPI_미국 개인근로소득 YoY</t>
   </si>
   <si>
@@ -515,9 +476,6 @@
     <t>KOSPI_발틱 해운임지수</t>
   </si>
   <si>
-    <t>KOSPI_브라질 OECD 경기선행지수</t>
-  </si>
-  <si>
     <t>KOSPI_브라질 REER</t>
   </si>
   <si>
@@ -557,12 +515,6 @@
     <t>KOSPI_유럽 M3 YoY</t>
   </si>
   <si>
-    <t>KOSPI_유럽 OECD 경기선행지수</t>
-  </si>
-  <si>
-    <t>KOSPI_유럽 산업생산(건설 제외) YoY</t>
-  </si>
-  <si>
     <t>KOSPI_유럽 소매판매 YoY</t>
   </si>
   <si>
@@ -584,9 +536,6 @@
     <t>KOSPI_유로존 Core CPI</t>
   </si>
   <si>
-    <t>KOSPI_유로존 Credit Impulse</t>
-  </si>
-  <si>
     <t>KOSPI_유로존 ESI</t>
   </si>
   <si>
@@ -596,9 +545,6 @@
     <t>KOSPI_유로존 소비자신뢰지수</t>
   </si>
   <si>
-    <t>KOSPI_인도 OECD 경기선행지수</t>
-  </si>
-  <si>
     <t>KOSPI_인도 REER</t>
   </si>
   <si>
@@ -614,15 +560,9 @@
     <t>KOSPI_일본 ESI</t>
   </si>
   <si>
-    <t>KOSPI_일본 OECD 경기선행지수</t>
-  </si>
-  <si>
     <t>KOSPI_일본 REER</t>
   </si>
   <si>
-    <t>KOSPI_일본 경기선행지수</t>
-  </si>
-  <si>
     <t>KOSPI_일본 산업생산 YoY</t>
   </si>
   <si>
@@ -659,9 +599,6 @@
     <t>KOSPI_중국 M1 YoY</t>
   </si>
   <si>
-    <t>KOSPI_중국 OECD 경기선행지수</t>
-  </si>
-  <si>
     <t>KOSPI_중국 PPI</t>
   </si>
   <si>
@@ -699,18 +636,6 @@
   </si>
   <si>
     <t>KOSPI_한국 Core CPI</t>
-  </si>
-  <si>
-    <t>KOSPI_한국 M1 YoY</t>
-  </si>
-  <si>
-    <t>KOSPI_한국 M2 YoY</t>
-  </si>
-  <si>
-    <t>KOSPI_한국 M3 YoY</t>
-  </si>
-  <si>
-    <t>KOSPI_한국 OECD 경기선행지수</t>
   </si>
   <si>
     <t>KOSPI_한국 PPI</t>
@@ -1212,7 +1137,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:JO4"/>
+  <dimension ref="A1:IP4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1220,7 +1145,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:275">
+    <row r="1" spans="1:250">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1968,921 +1893,771 @@
       <c r="IP1" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="IQ1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:250">
+      <c r="A2" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="IR1" s="1" t="s">
+      <c r="B2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1</v>
+      </c>
+      <c r="W2" t="n">
+        <v>1</v>
+      </c>
+      <c r="X2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BR2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BY2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BZ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CG2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="CH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CI2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CJ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="CK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="CM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CO2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="CP2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CR2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="CS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CY2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="CZ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DC2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DI2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DJ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DL2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DM2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DO2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DP2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DR2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DX2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DY2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DZ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="ED2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="EE2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="EF2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="EG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EI2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EJ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EO2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="EP2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="ER2" t="n">
+        <v>1</v>
+      </c>
+      <c r="ES2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="ET2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="EU2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="EV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EY2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EZ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FB2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FG2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FI2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FJ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FK2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FO2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FP2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FR2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FY2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FZ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GA2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GI2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GJ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GK2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GO2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GP2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GQ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GR2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GY2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GZ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HC2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HD2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HF2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HI2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HJ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HN2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HO2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HP2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HQ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HR2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HT2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HY2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HZ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IA2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IB2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IC2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="ID2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IG2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IH2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="II2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IJ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IK2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IM2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IN2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IO2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IP2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:250">
+      <c r="A3" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="IS1" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="IT1" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="IU1" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="IV1" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="IW1" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="IX1" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="IY1" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="IZ1" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="JA1" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="JB1" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="JC1" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="JD1" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="JE1" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="JF1" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="JG1" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="JH1" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="JI1" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="JJ1" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="JK1" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="JL1" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="JM1" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="JN1" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="JO1" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="2" spans="1:275">
-      <c r="A2" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="B2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="n">
-        <v>1</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1</v>
-      </c>
-      <c r="R2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1</v>
-      </c>
-      <c r="T2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1</v>
-      </c>
-      <c r="W2" t="n">
-        <v>1</v>
-      </c>
-      <c r="X2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BH2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BL2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="BM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BP2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="BQ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BR2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="BS2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BT2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BU2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BV2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="BW2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BX2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CG2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="CH2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="CI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CP2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="CQ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CR2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CS2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="CT2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CU2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="CV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CW2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CX2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="CY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DA2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="DB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DH2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="DI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DL2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="DM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DP2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DQ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DR2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DS2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DT2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DU2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="DV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DW2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DX2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="DY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EB2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="EC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="ED2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EH2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EK2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="EL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EP2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EQ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="ER2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="ES2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="ET2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EU2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EW2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EX2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FB2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FF2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FG2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FH2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FP2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FQ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FR2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FS2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FT2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FU2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FW2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FX2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FY2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GE2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="GF2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="GG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GH2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GI2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="GJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GP2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GQ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="GR2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GS2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GT2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="GU2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GW2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GX2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HC2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HE2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HH2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HJ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HK2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HP2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HQ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HR2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HS2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HT2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HU2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HV2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HW2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HX2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IB2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IC2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="ID2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IE2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IH2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="II2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IJ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IN2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IO2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IP2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IQ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IR2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IS2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IT2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IU2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IW2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IX2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IY2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IZ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JA2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JB2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JC2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JF2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JG2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JH2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JJ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JM2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JO2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:275">
-      <c r="A3" s="1" t="s">
-        <v>275</v>
-      </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -2891,19 +2666,19 @@
         <v>3</v>
       </c>
       <c r="G3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3" t="n">
         <v>3</v>
@@ -2915,7 +2690,7 @@
         <v>3</v>
       </c>
       <c r="O3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -2924,31 +2699,31 @@
         <v>2</v>
       </c>
       <c r="R3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>3</v>
       </c>
       <c r="T3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
         <v>2</v>
       </c>
-      <c r="X3" t="n">
-        <v>3</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
-      </c>
       <c r="Z3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA3" t="n">
         <v>3</v>
@@ -2957,154 +2732,154 @@
         <v>3</v>
       </c>
       <c r="AC3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>3</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>3</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP3" t="n">
         <v>2</v>
       </c>
-      <c r="AF3" t="n">
-        <v>3</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>3</v>
-      </c>
-      <c r="AI3" t="n">
+      <c r="BQ3" t="n">
+        <v>3</v>
+      </c>
+      <c r="BR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT3" t="n">
+        <v>3</v>
+      </c>
+      <c r="BU3" t="n">
         <v>2</v>
       </c>
-      <c r="AJ3" t="n">
-        <v>3</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>3</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>3</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI3" t="n">
+      <c r="BV3" t="n">
+        <v>3</v>
+      </c>
+      <c r="BW3" t="n">
+        <v>3</v>
+      </c>
+      <c r="BX3" t="n">
+        <v>3</v>
+      </c>
+      <c r="BY3" t="n">
         <v>2</v>
       </c>
-      <c r="BJ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM3" t="n">
-        <v>3</v>
-      </c>
-      <c r="BN3" t="n">
-        <v>3</v>
-      </c>
-      <c r="BO3" t="n">
-        <v>3</v>
-      </c>
-      <c r="BP3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ3" t="n">
-        <v>3</v>
-      </c>
-      <c r="BR3" t="n">
-        <v>3</v>
-      </c>
-      <c r="BS3" t="n">
-        <v>3</v>
-      </c>
-      <c r="BT3" t="n">
-        <v>3</v>
-      </c>
-      <c r="BU3" t="n">
-        <v>3</v>
-      </c>
-      <c r="BV3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX3" t="n">
-        <v>3</v>
-      </c>
-      <c r="BY3" t="n">
-        <v>0</v>
-      </c>
       <c r="BZ3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CA3" t="n">
         <v>0</v>
@@ -3116,289 +2891,289 @@
         <v>3</v>
       </c>
       <c r="CD3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CE3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CF3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG3" t="n">
+        <v>3</v>
+      </c>
+      <c r="CH3" t="n">
+        <v>3</v>
+      </c>
+      <c r="CI3" t="n">
+        <v>3</v>
+      </c>
+      <c r="CJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK3" t="n">
+        <v>3</v>
+      </c>
+      <c r="CL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM3" t="n">
+        <v>3</v>
+      </c>
+      <c r="CN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO3" t="n">
+        <v>3</v>
+      </c>
+      <c r="CP3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS3" t="n">
+        <v>3</v>
+      </c>
+      <c r="CT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU3" t="n">
+        <v>3</v>
+      </c>
+      <c r="CV3" t="n">
+        <v>3</v>
+      </c>
+      <c r="CW3" t="n">
+        <v>3</v>
+      </c>
+      <c r="CX3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB3" t="n">
         <v>2</v>
       </c>
-      <c r="CH3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CI3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP3" t="n">
-        <v>3</v>
-      </c>
-      <c r="CQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR3" t="n">
-        <v>3</v>
-      </c>
-      <c r="CS3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU3" t="n">
+      <c r="DC3" t="n">
+        <v>3</v>
+      </c>
+      <c r="DD3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DE3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG3" t="n">
+        <v>3</v>
+      </c>
+      <c r="DH3" t="n">
         <v>2</v>
       </c>
-      <c r="CV3" t="n">
-        <v>3</v>
-      </c>
-      <c r="CW3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX3" t="n">
-        <v>3</v>
-      </c>
-      <c r="CY3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB3" t="n">
-        <v>3</v>
-      </c>
-      <c r="DC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD3" t="n">
-        <v>3</v>
-      </c>
-      <c r="DE3" t="n">
-        <v>3</v>
-      </c>
-      <c r="DF3" t="n">
-        <v>3</v>
-      </c>
-      <c r="DG3" t="n">
-        <v>3</v>
-      </c>
-      <c r="DH3" t="n">
-        <v>0</v>
-      </c>
       <c r="DI3" t="n">
+        <v>3</v>
+      </c>
+      <c r="DJ3" t="n">
+        <v>3</v>
+      </c>
+      <c r="DK3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN3" t="n">
+        <v>3</v>
+      </c>
+      <c r="DO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT3" t="n">
+        <v>3</v>
+      </c>
+      <c r="DU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV3" t="n">
+        <v>3</v>
+      </c>
+      <c r="DW3" t="n">
+        <v>3</v>
+      </c>
+      <c r="DX3" t="n">
+        <v>3</v>
+      </c>
+      <c r="DY3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA3" t="n">
+        <v>3</v>
+      </c>
+      <c r="EB3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EC3" t="n">
+        <v>3</v>
+      </c>
+      <c r="ED3" t="n">
         <v>2</v>
       </c>
-      <c r="DJ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DK3" t="n">
-        <v>3</v>
-      </c>
-      <c r="DL3" t="n">
-        <v>3</v>
-      </c>
-      <c r="DM3" t="n">
+      <c r="EE3" t="n">
         <v>2</v>
       </c>
-      <c r="DN3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DO3" t="n">
-        <v>3</v>
-      </c>
-      <c r="DP3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DQ3" t="n">
-        <v>3</v>
-      </c>
-      <c r="DR3" t="n">
-        <v>3</v>
-      </c>
-      <c r="DS3" t="n">
+      <c r="EF3" t="n">
+        <v>3</v>
+      </c>
+      <c r="EG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH3" t="n">
         <v>2</v>
       </c>
-      <c r="DT3" t="n">
-        <v>3</v>
-      </c>
-      <c r="DU3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DV3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DW3" t="n">
-        <v>3</v>
-      </c>
-      <c r="DX3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DY3" t="n">
+      <c r="EI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ3" t="n">
+        <v>3</v>
+      </c>
+      <c r="EK3" t="n">
+        <v>3</v>
+      </c>
+      <c r="EL3" t="n">
         <v>2</v>
       </c>
-      <c r="DZ3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EA3" t="n">
+      <c r="EM3" t="n">
+        <v>3</v>
+      </c>
+      <c r="EN3" t="n">
+        <v>3</v>
+      </c>
+      <c r="EO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EQ3" t="n">
+        <v>1</v>
+      </c>
+      <c r="ER3" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES3" t="n">
+        <v>3</v>
+      </c>
+      <c r="ET3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV3" t="n">
         <v>2</v>
       </c>
-      <c r="EB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EC3" t="n">
-        <v>3</v>
-      </c>
-      <c r="ED3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EH3" t="n">
-        <v>3</v>
-      </c>
-      <c r="EI3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EJ3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EK3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EL3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EM3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EN3" t="n">
-        <v>3</v>
-      </c>
-      <c r="EO3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EP3" t="n">
-        <v>3</v>
-      </c>
-      <c r="EQ3" t="n">
+      <c r="EW3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX3" t="n">
         <v>2</v>
       </c>
-      <c r="ER3" t="n">
-        <v>0</v>
-      </c>
-      <c r="ES3" t="n">
-        <v>3</v>
-      </c>
-      <c r="ET3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EU3" t="n">
+      <c r="EY3" t="n">
+        <v>3</v>
+      </c>
+      <c r="EZ3" t="n">
+        <v>3</v>
+      </c>
+      <c r="FA3" t="n">
+        <v>3</v>
+      </c>
+      <c r="FB3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FC3" t="n">
+        <v>3</v>
+      </c>
+      <c r="FD3" t="n">
+        <v>3</v>
+      </c>
+      <c r="FE3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FF3" t="n">
+        <v>3</v>
+      </c>
+      <c r="FG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH3" t="n">
+        <v>3</v>
+      </c>
+      <c r="FI3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FJ3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL3" t="n">
         <v>2</v>
       </c>
-      <c r="EV3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW3" t="n">
-        <v>3</v>
-      </c>
-      <c r="EX3" t="n">
-        <v>3</v>
-      </c>
-      <c r="EY3" t="n">
-        <v>3</v>
-      </c>
-      <c r="EZ3" t="n">
-        <v>3</v>
-      </c>
-      <c r="FA3" t="n">
-        <v>3</v>
-      </c>
-      <c r="FB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FD3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF3" t="n">
-        <v>3</v>
-      </c>
-      <c r="FG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH3" t="n">
-        <v>3</v>
-      </c>
-      <c r="FI3" t="n">
-        <v>3</v>
-      </c>
-      <c r="FJ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK3" t="n">
-        <v>2</v>
-      </c>
-      <c r="FL3" t="n">
-        <v>0</v>
-      </c>
       <c r="FM3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="FN3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="FO3" t="n">
         <v>0</v>
       </c>
       <c r="FP3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FQ3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="FR3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="FS3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="FT3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="FU3" t="n">
         <v>0</v>
@@ -3407,13 +3182,13 @@
         <v>3</v>
       </c>
       <c r="FW3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="FX3" t="n">
         <v>2</v>
       </c>
       <c r="FY3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="FZ3" t="n">
         <v>0</v>
@@ -3422,85 +3197,85 @@
         <v>0</v>
       </c>
       <c r="GB3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GC3" t="n">
         <v>2</v>
       </c>
-      <c r="GC3" t="n">
-        <v>0</v>
-      </c>
       <c r="GD3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="GE3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GF3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GG3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GH3" t="n">
         <v>1</v>
       </c>
       <c r="GI3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="GJ3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="GK3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="GL3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="GM3" t="n">
         <v>0</v>
       </c>
       <c r="GN3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GO3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GP3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GT3" t="n">
         <v>2</v>
       </c>
-      <c r="GO3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ3" t="n">
-        <v>3</v>
-      </c>
-      <c r="GR3" t="n">
+      <c r="GU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GW3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GX3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GZ3" t="n">
         <v>2</v>
       </c>
-      <c r="GS3" t="n">
-        <v>2</v>
-      </c>
-      <c r="GT3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU3" t="n">
-        <v>3</v>
-      </c>
-      <c r="GV3" t="n">
-        <v>3</v>
-      </c>
-      <c r="GW3" t="n">
-        <v>2</v>
-      </c>
-      <c r="GX3" t="n">
-        <v>3</v>
-      </c>
-      <c r="GY3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GZ3" t="n">
-        <v>1</v>
-      </c>
       <c r="HA3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="HB3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="HC3" t="n">
         <v>3</v>
@@ -3509,37 +3284,37 @@
         <v>0</v>
       </c>
       <c r="HE3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="HF3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="HG3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="HH3" t="n">
         <v>0</v>
       </c>
       <c r="HI3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="HJ3" t="n">
         <v>3</v>
       </c>
       <c r="HK3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="HL3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="HM3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HN3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="HO3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="HP3" t="n">
         <v>0</v>
@@ -3548,981 +3323,831 @@
         <v>2</v>
       </c>
       <c r="HR3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="HS3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HU3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HV3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HW3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HX3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HY3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="IA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="IB3" t="n">
+        <v>1</v>
+      </c>
+      <c r="IC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="ID3" t="n">
+        <v>0</v>
+      </c>
+      <c r="IE3" t="n">
         <v>2</v>
       </c>
-      <c r="HT3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HU3" t="n">
+      <c r="IF3" t="n">
+        <v>3</v>
+      </c>
+      <c r="IG3" t="n">
+        <v>1</v>
+      </c>
+      <c r="IH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="II3" t="n">
         <v>2</v>
       </c>
-      <c r="HV3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HW3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HX3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HY3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HZ3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="IB3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="ID3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="IF3" t="n">
-        <v>1</v>
-      </c>
-      <c r="IG3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="II3" t="n">
-        <v>3</v>
-      </c>
       <c r="IJ3" t="n">
         <v>3</v>
       </c>
       <c r="IK3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="IL3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="IM3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="IN3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="IO3" t="n">
         <v>0</v>
       </c>
       <c r="IP3" t="n">
-        <v>0</v>
-      </c>
-      <c r="IQ3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IR3" t="n">
-        <v>0</v>
-      </c>
-      <c r="IS3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IT3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IU3" t="n">
-        <v>2</v>
-      </c>
-      <c r="IV3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IW3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IX3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IY3" t="n">
-        <v>0</v>
-      </c>
-      <c r="IZ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JA3" t="n">
-        <v>1</v>
-      </c>
-      <c r="JB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JD3" t="n">
-        <v>2</v>
-      </c>
-      <c r="JE3" t="n">
-        <v>2</v>
-      </c>
-      <c r="JF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JH3" t="n">
-        <v>2</v>
-      </c>
-      <c r="JI3" t="n">
-        <v>3</v>
-      </c>
-      <c r="JJ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JK3" t="n">
-        <v>3</v>
-      </c>
-      <c r="JL3" t="n">
-        <v>3</v>
-      </c>
-      <c r="JM3" t="n">
-        <v>1</v>
-      </c>
-      <c r="JN3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JO3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:275">
+    <row r="4" spans="1:250">
       <c r="A4" s="1" t="s">
-        <v>276</v>
+        <v>251</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.8825868439500351</v>
+        <v>-0.8909801945358654</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9098128534634423</v>
+        <v>0.8837435390066247</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9023618112513762</v>
+        <v>0.8466588386323541</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7964341328384898</v>
+        <v>0.67578971794013</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6754772401521508</v>
+        <v>0.5764222374220369</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4232066410346398</v>
+        <v>-0.6008857728108621</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9491939793779068</v>
+        <v>0.8553775510252594</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9243861753853749</v>
+        <v>0.8563984122139577</v>
       </c>
       <c r="J4" t="n">
-        <v>0.9194776414247408</v>
+        <v>0.3109852459457947</v>
       </c>
       <c r="K4" t="n">
-        <v>0.9481227482647795</v>
+        <v>0.343328586705825</v>
       </c>
       <c r="L4" t="n">
-        <v>0.9353212554580985</v>
+        <v>-0.5970657416149036</v>
       </c>
       <c r="M4" t="n">
-        <v>0.8579986374098336</v>
+        <v>0.9216444185686574</v>
       </c>
       <c r="N4" t="n">
-        <v>0.9359909575350724</v>
+        <v>-0.8316536221508167</v>
       </c>
       <c r="O4" t="n">
-        <v>0.9044105577914432</v>
+        <v>0.9234974978949012</v>
       </c>
       <c r="P4" t="n">
-        <v>0.3906834473418287</v>
+        <v>0.9323112550828522</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.4636999952162888</v>
+        <v>0.8729042974579732</v>
       </c>
       <c r="R4" t="n">
-        <v>-0.853916414873963</v>
+        <v>0.3845106245636459</v>
       </c>
       <c r="S4" t="n">
-        <v>0.9533445994455054</v>
+        <v>0.6537236260059071</v>
       </c>
       <c r="T4" t="n">
-        <v>-0.8166679153428757</v>
+        <v>-0.361213956524865</v>
       </c>
       <c r="U4" t="n">
-        <v>0.9140303609483733</v>
+        <v>0.8702252623198609</v>
       </c>
       <c r="V4" t="n">
-        <v>0.8795987186190449</v>
+        <v>0.6026532021205727</v>
       </c>
       <c r="W4" t="n">
-        <v>0.8814932749966883</v>
+        <v>0.8215026364384297</v>
       </c>
       <c r="X4" t="n">
-        <v>0.4595357966008531</v>
+        <v>0.7190154924581234</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.5825611138486846</v>
+        <v>-0.4050287303848889</v>
       </c>
       <c r="Z4" t="n">
-        <v>-0.5749842183791617</v>
+        <v>0.900317688209118</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.8937507613430645</v>
+        <v>0.6373769478685813</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.6721299488530352</v>
+        <v>0.877416992057521</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.8591375785122196</v>
+        <v>0.5632533951331397</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.773824827273031</v>
+        <v>0.9141414920661094</v>
       </c>
       <c r="AE4" t="n">
-        <v>-0.1087091803120913</v>
+        <v>0.6997836670393365</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.9068197745772748</v>
+        <v>0.7476635162285066</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.6699060809306897</v>
+        <v>0.5393249429282876</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.8849143462479513</v>
+        <v>0.3955133016150231</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.6128415778457468</v>
+        <v>1</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.931218702387526</v>
+        <v>-0.2490214467471827</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.7235442899276682</v>
+        <v>0.9798722695651291</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.6536413225361215</v>
+        <v>-0.2395648343940811</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.7171794814385772</v>
+        <v>-0.8202207405121312</v>
       </c>
       <c r="AN4" t="n">
-        <v>0.05365190430957349</v>
+        <v>-0.6998877213319482</v>
       </c>
       <c r="AO4" t="n">
-        <v>1</v>
+        <v>0.8868929196688563</v>
       </c>
       <c r="AP4" t="n">
-        <v>-0.405513041644958</v>
+        <v>0.1205634305809553</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.9861245737771162</v>
+        <v>-0.7981241778390067</v>
       </c>
       <c r="AR4" t="n">
-        <v>-0.3802511953999875</v>
+        <v>-0.6191202218236007</v>
       </c>
       <c r="AS4" t="n">
-        <v>-0.6952263801071916</v>
+        <v>0.9633991544985833</v>
       </c>
       <c r="AT4" t="n">
-        <v>-0.708647119827859</v>
+        <v>0.936355922634366</v>
       </c>
       <c r="AU4" t="n">
-        <v>0.9233857642201702</v>
+        <v>0.9212347554105674</v>
       </c>
       <c r="AV4" t="n">
-        <v>0.2816253294222054</v>
+        <v>0.9401087831437673</v>
       </c>
       <c r="AW4" t="n">
-        <v>-0.844556725674477</v>
+        <v>0.9565018866254741</v>
       </c>
       <c r="AX4" t="n">
-        <v>-0.6689952358694036</v>
+        <v>0.9561979890984019</v>
       </c>
       <c r="AY4" t="n">
-        <v>0.9762390678140704</v>
+        <v>0.9274119439031763</v>
       </c>
       <c r="AZ4" t="n">
-        <v>0.9676164099468946</v>
+        <v>0.9098488532790551</v>
       </c>
       <c r="BA4" t="n">
-        <v>0.9613890218833872</v>
+        <v>0.9702173407856819</v>
       </c>
       <c r="BB4" t="n">
-        <v>0.9599537441253069</v>
+        <v>0.8870651628917768</v>
       </c>
       <c r="BC4" t="n">
-        <v>0.9612538709027457</v>
+        <v>0.7789285410615785</v>
       </c>
       <c r="BD4" t="n">
-        <v>0.968350921129478</v>
+        <v>0.72914887406601</v>
       </c>
       <c r="BE4" t="n">
-        <v>0.9670357128104223</v>
+        <v>0.4063766169891967</v>
       </c>
       <c r="BF4" t="n">
-        <v>0.9570276455980279</v>
+        <v>0.8850645823038314</v>
       </c>
       <c r="BG4" t="n">
-        <v>0.9821621779629949</v>
+        <v>-0.5058504662912091</v>
       </c>
       <c r="BH4" t="n">
-        <v>0.9186072223640592</v>
+        <v>0.7217475105303753</v>
       </c>
       <c r="BI4" t="n">
-        <v>0.9126724399148896</v>
+        <v>-0.3389440263528597</v>
       </c>
       <c r="BJ4" t="n">
-        <v>0.7594092219391896</v>
+        <v>0.8191550003925355</v>
       </c>
       <c r="BK4" t="n">
-        <v>0.34619309604335</v>
+        <v>0.8322091972969775</v>
       </c>
       <c r="BL4" t="n">
-        <v>-0.2753975018845543</v>
+        <v>-0.4067318127081829</v>
       </c>
       <c r="BM4" t="n">
-        <v>0.9376572200027715</v>
+        <v>-0.7478204564799412</v>
       </c>
       <c r="BN4" t="n">
-        <v>0.9125313744732289</v>
+        <v>0.8901093883277965</v>
       </c>
       <c r="BO4" t="n">
-        <v>0.9462118655231532</v>
+        <v>0.7234097373785842</v>
       </c>
       <c r="BP4" t="n">
-        <v>-0.4787682439099608</v>
+        <v>0.8840560235583008</v>
       </c>
       <c r="BQ4" t="n">
-        <v>0.7705837463348946</v>
+        <v>0.4806350464414147</v>
       </c>
       <c r="BR4" t="n">
-        <v>-0.2398731316832911</v>
+        <v>0.8705187688470452</v>
       </c>
       <c r="BS4" t="n">
-        <v>0.8315123219809303</v>
+        <v>0.8285465498391962</v>
       </c>
       <c r="BT4" t="n">
-        <v>0.8657142054409911</v>
+        <v>0.7408639285745579</v>
       </c>
       <c r="BU4" t="n">
-        <v>0.5010794867757401</v>
+        <v>0.9639145276451148</v>
       </c>
       <c r="BV4" t="n">
-        <v>-0.5119835818555234</v>
+        <v>0.9436300218086353</v>
       </c>
       <c r="BW4" t="n">
-        <v>0.9515911236925702</v>
+        <v>0.9344604890760747</v>
       </c>
       <c r="BX4" t="n">
-        <v>0.9431613922558041</v>
+        <v>-0.8122463124824527</v>
       </c>
       <c r="BY4" t="n">
-        <v>0.9357987523617916</v>
+        <v>-0.61267107695608</v>
       </c>
       <c r="BZ4" t="n">
-        <v>0.7193623976834421</v>
+        <v>0.7232032674999204</v>
       </c>
       <c r="CA4" t="n">
-        <v>0.9577763030714012</v>
+        <v>0.9134104335783566</v>
       </c>
       <c r="CB4" t="n">
-        <v>0.8926929031012485</v>
+        <v>0.8245287603294118</v>
       </c>
       <c r="CC4" t="n">
-        <v>0.7468431077693843</v>
+        <v>0.8192987382310345</v>
       </c>
       <c r="CD4" t="n">
-        <v>0.9342582640730379</v>
+        <v>0.52979038806595</v>
       </c>
       <c r="CE4" t="n">
-        <v>0.8891205530211373</v>
+        <v>0.6179958972855372</v>
       </c>
       <c r="CF4" t="n">
-        <v>0.872058408191458</v>
+        <v>0.8449795771861645</v>
       </c>
       <c r="CG4" t="n">
-        <v>-0.8876753614785223</v>
+        <v>-0.4412676193699147</v>
       </c>
       <c r="CH4" t="n">
-        <v>-0.6783792162662495</v>
+        <v>0.5883165446993255</v>
       </c>
       <c r="CI4" t="n">
-        <v>0.6661282042093308</v>
+        <v>0.6025770263351776</v>
       </c>
       <c r="CJ4" t="n">
-        <v>0.9252818724890244</v>
+        <v>-0.4544441513432913</v>
       </c>
       <c r="CK4" t="n">
-        <v>0.8986164255540443</v>
+        <v>0.7225697288631659</v>
       </c>
       <c r="CL4" t="n">
-        <v>0.8209870134676136</v>
+        <v>-0.1781331418461659</v>
       </c>
       <c r="CM4" t="n">
-        <v>0.4178606154088861</v>
+        <v>0.6892416418783871</v>
       </c>
       <c r="CN4" t="n">
-        <v>0.6935855212592489</v>
+        <v>0.8614194879858378</v>
       </c>
       <c r="CO4" t="n">
-        <v>0.7980235346289443</v>
+        <v>-0.4568825848697737</v>
       </c>
       <c r="CP4" t="n">
-        <v>-0.7726578184450973</v>
+        <v>0.8460277178472814</v>
       </c>
       <c r="CQ4" t="n">
-        <v>0.7108893140685915</v>
+        <v>0.8473998310014714</v>
       </c>
       <c r="CR4" t="n">
-        <v>0.6508854880239204</v>
+        <v>-0.2330619616588735</v>
       </c>
       <c r="CS4" t="n">
-        <v>-0.1329525109559851</v>
+        <v>0.8933361090921798</v>
       </c>
       <c r="CT4" t="n">
-        <v>0.6426819773371534</v>
+        <v>0.3711732340740728</v>
       </c>
       <c r="CU4" t="n">
-        <v>-0.04670307979851239</v>
+        <v>0.8482782054300313</v>
       </c>
       <c r="CV4" t="n">
-        <v>0.6512475194323937</v>
+        <v>0.8560181064058373</v>
       </c>
       <c r="CW4" t="n">
-        <v>0.9357604487607657</v>
+        <v>0.8360969518043634</v>
       </c>
       <c r="CX4" t="n">
-        <v>-0.1589264791282813</v>
+        <v>0.7506881555672335</v>
       </c>
       <c r="CY4" t="n">
-        <v>0.9012448761830089</v>
+        <v>-0.7550312560040869</v>
       </c>
       <c r="CZ4" t="n">
-        <v>0.9502398824693598</v>
+        <v>0.6518335982923663</v>
       </c>
       <c r="DA4" t="n">
-        <v>-0.3486674001938557</v>
+        <v>0.7874361206092869</v>
       </c>
       <c r="DB4" t="n">
-        <v>0.9123150712259559</v>
+        <v>0.9428191268921627</v>
       </c>
       <c r="DC4" t="n">
-        <v>0.4447785935649438</v>
+        <v>-0.3403452514499012</v>
       </c>
       <c r="DD4" t="n">
-        <v>0.8696999667488973</v>
+        <v>0.6613830578332816</v>
       </c>
       <c r="DE4" t="n">
-        <v>0.8786653395765629</v>
+        <v>0.6969627015114678</v>
       </c>
       <c r="DF4" t="n">
-        <v>0.8716974693938245</v>
+        <v>0.2150808285850569</v>
       </c>
       <c r="DG4" t="n">
-        <v>0.9308062091131869</v>
+        <v>0.698215570186503</v>
       </c>
       <c r="DH4" t="n">
-        <v>-0.6734374345177397</v>
+        <v>0.08006440405395186</v>
       </c>
       <c r="DI4" t="n">
-        <v>0.7482729097092635</v>
+        <v>0.7239166120198686</v>
       </c>
       <c r="DJ4" t="n">
-        <v>0.7388321222683415</v>
+        <v>-0.8438630878514596</v>
       </c>
       <c r="DK4" t="n">
-        <v>0.9570815838326653</v>
+        <v>0.2562239775454561</v>
       </c>
       <c r="DL4" t="n">
-        <v>-0.6491292666272541</v>
+        <v>-0.5136215415167371</v>
       </c>
       <c r="DM4" t="n">
-        <v>0.6967915870674432</v>
+        <v>-0.8999965497943271</v>
       </c>
       <c r="DN4" t="n">
-        <v>0.753737252694452</v>
+        <v>0.7773171338261956</v>
       </c>
       <c r="DO4" t="n">
-        <v>0.2361849666148299</v>
+        <v>0.2756751138398187</v>
       </c>
       <c r="DP4" t="n">
-        <v>0.7947387711852369</v>
+        <v>-0.5880228278802012</v>
       </c>
       <c r="DQ4" t="n">
-        <v>0.8274676366491146</v>
+        <v>0.8614194879858378</v>
       </c>
       <c r="DR4" t="n">
-        <v>0.844783711203577</v>
+        <v>0.8444076710641669</v>
       </c>
       <c r="DS4" t="n">
-        <v>0.2497353970483344</v>
+        <v>0.9314820041870066</v>
       </c>
       <c r="DT4" t="n">
-        <v>0.783071522603524</v>
+        <v>0.7255338140107126</v>
       </c>
       <c r="DU4" t="n">
-        <v>-0.8977141496654766</v>
+        <v>0.7612947108888199</v>
       </c>
       <c r="DV4" t="n">
-        <v>0.3153263863789693</v>
+        <v>0.6198554016615565</v>
       </c>
       <c r="DW4" t="n">
-        <v>0.2654641489731309</v>
+        <v>0.9018071227708804</v>
       </c>
       <c r="DX4" t="n">
-        <v>-0.8636071079492099</v>
+        <v>-0.9466271893927567</v>
       </c>
       <c r="DY4" t="n">
-        <v>0.7609215322010401</v>
+        <v>0.8769283719635143</v>
       </c>
       <c r="DZ4" t="n">
-        <v>0.8949082326259484</v>
+        <v>0.7724099343876807</v>
       </c>
       <c r="EA4" t="n">
-        <v>0.2384874863109993</v>
+        <v>0.9403743845082231</v>
       </c>
       <c r="EB4" t="n">
-        <v>-0.6304722033289651</v>
+        <v>0.8433769276619593</v>
       </c>
       <c r="EC4" t="n">
-        <v>0.9292421263078523</v>
+        <v>0.5040527948135791</v>
       </c>
       <c r="ED4" t="n">
-        <v>0.9357604487607657</v>
+        <v>-0.7303691135439598</v>
       </c>
       <c r="EE4" t="n">
-        <v>0.9372373817217999</v>
+        <v>-0.2417047306130444</v>
       </c>
       <c r="EF4" t="n">
-        <v>0.937999461989007</v>
+        <v>-0.1296293660688604</v>
       </c>
       <c r="EG4" t="n">
-        <v>0.6997176731483876</v>
+        <v>0.7683179933476363</v>
       </c>
       <c r="EH4" t="n">
-        <v>0.8788888464103105</v>
+        <v>0.8946045955138398</v>
       </c>
       <c r="EI4" t="n">
-        <v>0.4407326705824788</v>
+        <v>0.6416643671114525</v>
       </c>
       <c r="EJ4" t="n">
-        <v>0.9487479680830966</v>
+        <v>0.7740458971427751</v>
       </c>
       <c r="EK4" t="n">
-        <v>-0.9377673643671683</v>
+        <v>0.9079478251937863</v>
       </c>
       <c r="EL4" t="n">
-        <v>0.9601924571027977</v>
+        <v>0.8293133497869103</v>
       </c>
       <c r="EM4" t="n">
-        <v>0.758730221055566</v>
+        <v>0.8121824533847419</v>
       </c>
       <c r="EN4" t="n">
-        <v>0.9701886625230981</v>
+        <v>0.8139218436036968</v>
       </c>
       <c r="EO4" t="n">
-        <v>0.8901655682316729</v>
+        <v>-0.8526574957164715</v>
       </c>
       <c r="EP4" t="n">
-        <v>0.6229303450312488</v>
+        <v>0.8400569027270777</v>
       </c>
       <c r="EQ4" t="n">
-        <v>-0.7044560955888004</v>
+        <v>0.1158877096995235</v>
       </c>
       <c r="ER4" t="n">
-        <v>-0.6902621077225281</v>
+        <v>0.7876301411659703</v>
       </c>
       <c r="ES4" t="n">
-        <v>-0.2648476589102121</v>
+        <v>-0.8654292798394099</v>
       </c>
       <c r="ET4" t="n">
-        <v>0.8672412436197878</v>
+        <v>-0.7333737865813822</v>
       </c>
       <c r="EU4" t="n">
-        <v>0.9452223419353508</v>
+        <v>-0.8888923837472591</v>
       </c>
       <c r="EV4" t="n">
-        <v>0.3625233689200581</v>
+        <v>0.7141305713273982</v>
       </c>
       <c r="EW4" t="n">
-        <v>0.8321019574914614</v>
+        <v>0.715322972977611</v>
       </c>
       <c r="EX4" t="n">
-        <v>0.9435106585587824</v>
+        <v>0.7835223438890898</v>
       </c>
       <c r="EY4" t="n">
-        <v>0.8659290653097972</v>
+        <v>0.4877175103555527</v>
       </c>
       <c r="EZ4" t="n">
-        <v>0.8377846817849776</v>
+        <v>0.8441452149826177</v>
       </c>
       <c r="FA4" t="n">
-        <v>0.8758340555089035</v>
+        <v>0.744564147515134</v>
       </c>
       <c r="FB4" t="n">
-        <v>-0.9019106962467389</v>
+        <v>-0.7784904609197931</v>
       </c>
       <c r="FC4" t="n">
-        <v>0.9591562004951116</v>
+        <v>0.343328586705825</v>
       </c>
       <c r="FD4" t="n">
-        <v>0.2011845788005017</v>
+        <v>0.8519888204416339</v>
       </c>
       <c r="FE4" t="n">
-        <v>0.8066615305097316</v>
+        <v>0.7769680421962307</v>
       </c>
       <c r="FF4" t="n">
-        <v>-0.8592298347462075</v>
+        <v>0.5086235879673316</v>
       </c>
       <c r="FG4" t="n">
-        <v>-0.8534196743814647</v>
+        <v>-0.6111751988169728</v>
       </c>
       <c r="FH4" t="n">
-        <v>-0.8732146710136575</v>
+        <v>0.8469891041952998</v>
       </c>
       <c r="FI4" t="n">
-        <v>0.7523504383522306</v>
+        <v>0.06644309682056278</v>
       </c>
       <c r="FJ4" t="n">
-        <v>0.7384944164095076</v>
+        <v>0.0877787223861758</v>
       </c>
       <c r="FK4" t="n">
-        <v>0.8250830379421193</v>
+        <v>-0.4262425870286652</v>
       </c>
       <c r="FL4" t="n">
-        <v>0.9217809315202302</v>
+        <v>0.3928709917637692</v>
       </c>
       <c r="FM4" t="n">
-        <v>0.6409649725167952</v>
+        <v>0.9457007566870422</v>
       </c>
       <c r="FN4" t="n">
-        <v>0.8108402346983072</v>
+        <v>0.9394652892331223</v>
       </c>
       <c r="FO4" t="n">
-        <v>0.7362906348255271</v>
+        <v>-0.6482005636072812</v>
       </c>
       <c r="FP4" t="n">
-        <v>-0.6698780015767108</v>
+        <v>-0.9031099705546159</v>
       </c>
       <c r="FQ4" t="n">
-        <v>0.4636999952162888</v>
+        <v>0.7811586553185026</v>
       </c>
       <c r="FR4" t="n">
-        <v>0.8957838776693482</v>
+        <v>0.5737668358178791</v>
       </c>
       <c r="FS4" t="n">
-        <v>0.6702413946726758</v>
+        <v>0.4123863699896121</v>
       </c>
       <c r="FT4" t="n">
-        <v>0.5718937888443228</v>
+        <v>0.7480023292185755</v>
       </c>
       <c r="FU4" t="n">
-        <v>-0.4065421902699023</v>
+        <v>0.9457007566870422</v>
       </c>
       <c r="FV4" t="n">
-        <v>0.8789065004874976</v>
+        <v>0.8256835989571545</v>
       </c>
       <c r="FW4" t="n">
-        <v>-0.2465979555192534</v>
+        <v>0.7771076573518871</v>
       </c>
       <c r="FX4" t="n">
-        <v>0.1643760385266021</v>
+        <v>0.7831412492543242</v>
       </c>
       <c r="FY4" t="n">
-        <v>-0.389394293106168</v>
+        <v>-0.6575256380178712</v>
       </c>
       <c r="FZ4" t="n">
-        <v>0.8648452044902812</v>
+        <v>-0.3800722337968345</v>
       </c>
       <c r="GA4" t="n">
-        <v>0.5425165046565967</v>
+        <v>-0.81222271838329</v>
       </c>
       <c r="GB4" t="n">
-        <v>0.3603085657638817</v>
+        <v>0.7429222798470095</v>
       </c>
       <c r="GC4" t="n">
-        <v>0.9431602374987776</v>
+        <v>0.7753747368676337</v>
       </c>
       <c r="GD4" t="n">
-        <v>0.8520655999018297</v>
+        <v>0.3483076083992969</v>
       </c>
       <c r="GE4" t="n">
-        <v>-0.4893430441421557</v>
+        <v>0.9123540360450894</v>
       </c>
       <c r="GF4" t="n">
-        <v>-0.8153716695919532</v>
+        <v>0.878531345368035</v>
       </c>
       <c r="GG4" t="n">
-        <v>0.8865277584173171</v>
+        <v>0.3378815971795324</v>
       </c>
       <c r="GH4" t="n">
-        <v>0.5265862349263222</v>
+        <v>0.8894346445766507</v>
       </c>
       <c r="GI4" t="n">
-        <v>-0.9049736461731265</v>
+        <v>-0.7019854455130803</v>
       </c>
       <c r="GJ4" t="n">
-        <v>0.611170786381009</v>
+        <v>0</v>
       </c>
       <c r="GK4" t="n">
-        <v>0.747698735305162</v>
+        <v>-0.3715472325961238</v>
       </c>
       <c r="GL4" t="n">
-        <v>0.9431602374987776</v>
+        <v>0.35400872876258</v>
       </c>
       <c r="GM4" t="n">
-        <v>0.4605754097420208</v>
+        <v>0.8931929333683671</v>
       </c>
       <c r="GN4" t="n">
-        <v>0.8998624129653983</v>
+        <v>0.8884168506499547</v>
       </c>
       <c r="GO4" t="n">
-        <v>0.587889482809798</v>
+        <v>-0.4386209633930727</v>
       </c>
       <c r="GP4" t="n">
-        <v>0.7506217336008518</v>
+        <v>-0.5562862342366132</v>
       </c>
       <c r="GQ4" t="n">
-        <v>-0.7926891573545919</v>
+        <v>-9.275151535077763e-16</v>
       </c>
       <c r="GR4" t="n">
-        <v>0.06904086561042998</v>
+        <v>-9.275151535077763e-16</v>
       </c>
       <c r="GS4" t="n">
-        <v>0.855905402028088</v>
+        <v>0.7658952601944977</v>
       </c>
       <c r="GT4" t="n">
-        <v>-0.6125305486802153</v>
+        <v>0.6565240141642962</v>
       </c>
       <c r="GU4" t="n">
-        <v>0.8511089677361406</v>
+        <v>0</v>
       </c>
       <c r="GV4" t="n">
-        <v>0.8305508007907316</v>
+        <v>0.2311925922466075</v>
       </c>
       <c r="GW4" t="n">
-        <v>0.793471070655502</v>
+        <v>0.2242179888973698</v>
       </c>
       <c r="GX4" t="n">
-        <v>0.4799753214050398</v>
+        <v>0.4673606613061965</v>
       </c>
       <c r="GY4" t="n">
-        <v>0.9426123151434649</v>
+        <v>0.7034246608393999</v>
       </c>
       <c r="GZ4" t="n">
-        <v>0.9382247132931616</v>
+        <v>-0.4185170126024556</v>
       </c>
       <c r="HA4" t="n">
-        <v>0.3293902437735539</v>
+        <v>0.8479877989986916</v>
       </c>
       <c r="HB4" t="n">
-        <v>0.9024183826688941</v>
+        <v>0.6196430983606404</v>
       </c>
       <c r="HC4" t="n">
-        <v>-0.7938450647279266</v>
+        <v>-0.3456128053507942</v>
       </c>
       <c r="HD4" t="n">
-        <v>0</v>
+        <v>-0.7118759293668988</v>
       </c>
       <c r="HE4" t="n">
-        <v>-0.3847438112556146</v>
+        <v>0.6559882729334333</v>
       </c>
       <c r="HF4" t="n">
-        <v>0.4249917882804464</v>
+        <v>-0.4058591650225303</v>
       </c>
       <c r="HG4" t="n">
-        <v>0.9139093689113021</v>
+        <v>0.7865562251559745</v>
       </c>
       <c r="HH4" t="n">
-        <v>-0.8009977377436658</v>
+        <v>0.9056124235122512</v>
       </c>
       <c r="HI4" t="n">
-        <v>0.9117859776016843</v>
+        <v>-0.76642307478247</v>
       </c>
       <c r="HJ4" t="n">
-        <v>-0.7130348798365098</v>
+        <v>0.38422955295551</v>
       </c>
       <c r="HK4" t="n">
-        <v>-0.6761367564490852</v>
+        <v>0.5183038025652784</v>
       </c>
       <c r="HL4" t="n">
-        <v>9.435139085044281e-16</v>
+        <v>0.8361749267914173</v>
       </c>
       <c r="HM4" t="n">
-        <v>9.435139085044281e-16</v>
+        <v>0.6905148442557033</v>
       </c>
       <c r="HN4" t="n">
-        <v>0.8114671207779215</v>
+        <v>-0.09555945831938491</v>
       </c>
       <c r="HO4" t="n">
-        <v>0.750323550204257</v>
+        <v>-0.2366402316084944</v>
       </c>
       <c r="HP4" t="n">
-        <v>0</v>
+        <v>-0.4876629067681806</v>
       </c>
       <c r="HQ4" t="n">
-        <v>0.1682313103078076</v>
+        <v>-0.1141716694524618</v>
       </c>
       <c r="HR4" t="n">
-        <v>0.2551093528872674</v>
+        <v>-0.76953383529368</v>
       </c>
       <c r="HS4" t="n">
-        <v>0.5609868123296614</v>
+        <v>0.8509547447068603</v>
       </c>
       <c r="HT4" t="n">
-        <v>0.836949641356126</v>
+        <v>-0.3598121022603862</v>
       </c>
       <c r="HU4" t="n">
-        <v>-0.5098241333089187</v>
+        <v>0.7702427815812136</v>
       </c>
       <c r="HV4" t="n">
-        <v>-0.8720225259301058</v>
+        <v>0.654788285016936</v>
       </c>
       <c r="HW4" t="n">
-        <v>-0.903404117203419</v>
+        <v>0.8220221522471545</v>
       </c>
       <c r="HX4" t="n">
-        <v>-0.9292262702624318</v>
+        <v>0.8067181313206553</v>
       </c>
       <c r="HY4" t="n">
-        <v>0.3916040857998321</v>
+        <v>0.6721312290266512</v>
       </c>
       <c r="HZ4" t="n">
-        <v>0.9097336131876429</v>
+        <v>-0.4476013182790649</v>
       </c>
       <c r="IA4" t="n">
-        <v>0.6104187811915964</v>
+        <v>-0.5327511117738295</v>
       </c>
       <c r="IB4" t="n">
-        <v>-0.4587460336530851</v>
+        <v>-0.2092537976326327</v>
       </c>
       <c r="IC4" t="n">
-        <v>-0.6454175330703981</v>
+        <v>-0.5202954319362871</v>
       </c>
       <c r="ID4" t="n">
-        <v>0.6204353098225738</v>
+        <v>-0.8136730761820549</v>
       </c>
       <c r="IE4" t="n">
-        <v>-0.08214579394092143</v>
+        <v>0.8406822920133808</v>
       </c>
       <c r="IF4" t="n">
-        <v>0.7036255160503803</v>
+        <v>0.05887241944113372</v>
       </c>
       <c r="IG4" t="n">
-        <v>0.9603062154578822</v>
+        <v>-0.8786816177633164</v>
       </c>
       <c r="IH4" t="n">
-        <v>-0.7626817689488304</v>
+        <v>-0.636309698760595</v>
       </c>
       <c r="II4" t="n">
-        <v>0.5236399400663219</v>
+        <v>0.8406822920133808</v>
       </c>
       <c r="IJ4" t="n">
-        <v>-0.4423626134517845</v>
+        <v>0.8050486212532305</v>
       </c>
       <c r="IK4" t="n">
-        <v>0.2603915052440561</v>
+        <v>-0.2980009342130802</v>
       </c>
       <c r="IL4" t="n">
-        <v>0.7595929245625722</v>
+        <v>0.2831709364565655</v>
       </c>
       <c r="IM4" t="n">
-        <v>0.1468705367640862</v>
+        <v>-0.429148911254669</v>
       </c>
       <c r="IN4" t="n">
-        <v>-0.08034351022913942</v>
+        <v>-0.8372692261653835</v>
       </c>
       <c r="IO4" t="n">
-        <v>-0.3915284311730984</v>
+        <v>0.9135300069684057</v>
       </c>
       <c r="IP4" t="n">
-        <v>-0.08933616013520691</v>
-      </c>
-      <c r="IQ4" t="n">
-        <v>-0.788192440878973</v>
-      </c>
-      <c r="IR4" t="n">
-        <v>0.9128062236834583</v>
-      </c>
-      <c r="IS4" t="n">
-        <v>-0.4864885834357547</v>
-      </c>
-      <c r="IT4" t="n">
-        <v>0.7897492979721004</v>
-      </c>
-      <c r="IU4" t="n">
-        <v>0.6644082874478947</v>
-      </c>
-      <c r="IV4" t="n">
-        <v>0.8543664536130492</v>
-      </c>
-      <c r="IW4" t="n">
-        <v>0.8525678737190854</v>
-      </c>
-      <c r="IX4" t="n">
-        <v>0.8349500173224604</v>
-      </c>
-      <c r="IY4" t="n">
-        <v>-0.2835049122491788</v>
-      </c>
-      <c r="IZ4" t="n">
-        <v>-0.5656338390845319</v>
-      </c>
-      <c r="JA4" t="n">
-        <v>-0.1629414396142201</v>
-      </c>
-      <c r="JB4" t="n">
-        <v>-0.4624389621634025</v>
-      </c>
-      <c r="JC4" t="n">
-        <v>-0.7960244747314421</v>
-      </c>
-      <c r="JD4" t="n">
-        <v>0.8464499045520246</v>
-      </c>
-      <c r="JE4" t="n">
-        <v>0.1882231844681595</v>
-      </c>
-      <c r="JF4" t="n">
-        <v>-0.92896651757376</v>
-      </c>
-      <c r="JG4" t="n">
-        <v>-0.5519849841336426</v>
-      </c>
-      <c r="JH4" t="n">
-        <v>0.8464499045520246</v>
-      </c>
-      <c r="JI4" t="n">
-        <v>0.8354628536178291</v>
-      </c>
-      <c r="JJ4" t="n">
-        <v>-0.4163283628188024</v>
-      </c>
-      <c r="JK4" t="n">
-        <v>0.3596865483318015</v>
-      </c>
-      <c r="JL4" t="n">
-        <v>0.2814552415658573</v>
-      </c>
-      <c r="JM4" t="n">
-        <v>-0.6573372572493398</v>
-      </c>
-      <c r="JN4" t="n">
-        <v>0.9235409495904252</v>
-      </c>
-      <c r="JO4" t="n">
-        <v>0.8619525257893531</v>
+        <v>0.846774214783798</v>
       </c>
     </row>
   </sheetData>
